--- a/res_nodict/resultados_frecuencia_taller.xlsx
+++ b/res_nodict/resultados_frecuencia_taller.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,37 +450,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>Datos</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Datos</t>
+          <t>Estadísticas</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Estadísticas</t>
+          <t>proyectos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>proyectos</t>
+          <t>Información</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -490,7 +490,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Información</t>
+          <t>- Cantidad</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -500,17 +500,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>- Cantidad</t>
+          <t>trabajo</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trabajo</t>
+          <t>datos</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>, programas</t>
+          <t>comunicación</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -530,7 +530,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>gasto público</t>
+          <t>institución</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -540,7 +540,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>, plagas</t>
+          <t>, programas</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -550,7 +550,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>institución</t>
+          <t>gasto público</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -560,7 +560,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>datos</t>
+          <t>, plagas</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -570,11 +570,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>comunicación</t>
+          <t>trámites generados</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -590,7 +590,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>información</t>
+          <t>empleabilidad</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -600,7 +600,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>través de análisis</t>
+          <t>, Decretos</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Datos de vacunacion</t>
+          <t>Acciones institucionales</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -620,7 +620,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>coyuntura</t>
+          <t>STCNS</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -630,7 +630,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Clasificación Integrada por Fases de la Inseguridad Alimentaria; Comisiones de Seguridad Alimentaria y Nutricional; Monitoreo de la Desnutrición Aguda; Indicadores de Seguridad Alimentaria y Nutricional; Monitoreo  Comunitario de Conocimientos, Prácticas y Actitudes en SAN</t>
+          <t>información</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -640,7 +640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reuniones</t>
+          <t>cantidad</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -650,7 +650,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Acciones institucionales</t>
+          <t>vehículos recuperados</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -660,7 +660,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>relación a arrendamientos</t>
+          <t>foros</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -670,7 +670,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Estado</t>
+          <t>Temas</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -680,7 +680,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>consejo</t>
+          <t>reuniones</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -690,7 +690,8 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>STCNS</t>
+          <t>)
+Cantidad</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -700,7 +701,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Denuncias</t>
+          <t>, drogas</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -710,7 +711,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>acerca de las zonas</t>
+          <t>(armas</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -720,8 +721,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>)
-Cantidad</t>
+          <t>elementos ilícitos</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -731,7 +731,8 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>servidores</t>
+          <t xml:space="preserve">denuncias emitidas
+</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -751,8 +752,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">denuncias emitidas
-</t>
+          <t>servidores</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -762,7 +762,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>elementos ilícitos</t>
+          <t>funciones</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -772,7 +772,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>(armas</t>
+          <t>coyuntura</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -782,7 +782,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>, drogas</t>
+          <t>Denuncias</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -792,7 +792,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>vehículos recuperados</t>
+          <t>consejo</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -802,7 +802,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>empleabilidad</t>
+          <t>dicha información</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -812,7 +812,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Temas</t>
+          <t>, viviendas</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -822,7 +822,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>foros</t>
+          <t>programas</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -832,7 +832,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Datos relacionados con el que hacer de la institución, que es certeza jurídica en el facturar del despacho del Presidente como Acuerdos Gubernativos</t>
+          <t>, estadísticas</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -842,7 +842,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>, Decretos</t>
+          <t>, vías</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -852,7 +852,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>donde</t>
+          <t>carreteras</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -862,7 +862,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>trámites generados</t>
+          <t>Radiodifusión</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -872,7 +872,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cantidad</t>
+          <t>frecuencias</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -882,7 +882,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>aprehensiones</t>
+          <t>ministerio</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -892,7 +892,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>dicha información</t>
+          <t>empleo</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -902,7 +902,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Radiodifusión</t>
+          <t>rector</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -912,7 +912,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>como ente</t>
+          <t>avance</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -922,7 +922,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>rector</t>
+          <t>mujer</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -932,7 +932,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>empleo</t>
+          <t>incautaciones</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -942,7 +942,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>, por medio de los diferentes servicios</t>
+          <t>producción institucional</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -952,7 +952,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ministerio</t>
+          <t>proyecto</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -962,7 +962,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>frecuencias</t>
+          <t>departamentos</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -972,7 +972,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>así como  numeración</t>
+          <t>, categoría</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -982,7 +982,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>nivel académico</t>
+          <t>seguridad</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -992,7 +992,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>carreteras</t>
+          <t>planes</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1002,7 +1002,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>, vías</t>
+          <t>- Resultados</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1012,7 +1012,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>, estadísticas</t>
+          <t>antecedentes policiales</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1022,7 +1022,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>programas</t>
+          <t>aprehensiones</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1032,7 +1032,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>respecto a las carreteras</t>
+          <t>* Información desagregada</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1042,7 +1042,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>, viviendas</t>
+          <t>nivel académico</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1052,7 +1052,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>avance</t>
+          <t>índice</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1062,7 +1062,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>materia de seguridad</t>
+          <t>, ingresos</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1072,7 +1072,8 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t xml:space="preserve">Información Financiera.
+</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1082,7 +1083,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>relación a la participación</t>
+          <t>Adquisiciones públicas</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1092,7 +1093,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>incautaciones</t>
+          <t>población</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1102,7 +1103,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>datos estadísticos y financieros</t>
+          <t>servicios</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1112,7 +1113,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>producción institucional</t>
+          <t>bienes</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1122,7 +1123,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Datos Estadisticos de cada Subsecretaría en cuanto al porcentaje de  subvenciones que maneja cada una.</t>
+          <t>Sesan</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1132,7 +1133,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>proyecto</t>
+          <t>laboratorios</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1142,7 +1143,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>departamentos</t>
+          <t>Minera, petrolera</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1152,7 +1153,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>, categoría</t>
+          <t>salud</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1162,7 +1163,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>cuantas licencias ambientales</t>
+          <t>incidencias</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1172,7 +1173,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>seguridad</t>
+          <t>Proyectos</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1182,7 +1183,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>planes</t>
+          <t>extranjero</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1192,7 +1193,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>- Resultados</t>
+          <t>Ejecución</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1202,7 +1203,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>antecedentes policiales</t>
+          <t>ofertas</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1212,8 +1213,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vehículos recuperados 
-- Cantidad de armas incautadas (de fuego, contundentes, armas blancas,</t>
+          <t>solicitudes</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1223,7 +1223,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>funciones</t>
+          <t>actividades</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1233,7 +1233,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>índice</t>
+          <t>consultas</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1243,7 +1243,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>* Información desagregada</t>
+          <t>formularios</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1253,7 +1253,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Minera, petrolera</t>
+          <t>resultados</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1263,7 +1263,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Informacion de Nivel Académico.</t>
+          <t>Incidentes</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1273,7 +1273,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Estadística de las solicitudes de exoneraciones de multas solicitadas a nivel nacional.</t>
+          <t>Datos mineros</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1283,7 +1283,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Proyectos</t>
+          <t>producción minera</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1293,7 +1293,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Consejos de Desarrollo</t>
+          <t>estadisticas</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1303,7 +1303,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>incidencias</t>
+          <t>estudiantes desertores</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1313,7 +1313,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>salud</t>
+          <t>, ranking</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1323,7 +1323,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>laboratorios</t>
+          <t>(compras</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1333,7 +1333,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>, ingresos</t>
+          <t>Estadísticos</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1343,7 +1343,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sesan</t>
+          <t>* Información financiera</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1353,7 +1353,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bienes</t>
+          <t>puestos disponibles</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1363,7 +1363,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>servicios</t>
+          <t>tiempo real</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1373,7 +1373,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>población</t>
+          <t>, maestrías</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1383,7 +1383,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Adquisiciones públicas</t>
+          <t>tesis</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1393,7 +1393,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Asistencia Legal Gratuita por Departamento y Municipio</t>
+          <t>, producción</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1403,8 +1403,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Informacion de Servicios.
-</t>
+          <t>beneficiarios</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1414,8 +1413,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Información Financiera.
-</t>
+          <t>Cambio climático</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1425,7 +1423,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>extranjero</t>
+          <t>, resultados</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1435,7 +1433,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ofertas</t>
+          <t>, medición</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1445,7 +1443,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>solicitudes</t>
+          <t>gobierno</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1455,7 +1453,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>como con funcionarios</t>
+          <t>publicaciones</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1465,7 +1463,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>tanto con sociedad civil</t>
+          <t>nivel</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1475,7 +1473,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>actividades</t>
+          <t>nivel académicos</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1485,7 +1483,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>También información</t>
+          <t>, ingresos privativos</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1495,7 +1493,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>consultas</t>
+          <t>ingresos</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1505,7 +1503,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>formularios</t>
+          <t>desentralizacion</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1515,7 +1513,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>resultados</t>
+          <t>jornadas</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1525,7 +1523,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Incidentes</t>
+          <t>contrataciones</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1535,7 +1533,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>de hodrocarburos</t>
+          <t>, informes</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1545,7 +1543,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Datos mineros</t>
+          <t>, capacitaciones</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1555,7 +1553,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>producción minera</t>
+          <t>redes sociales</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1565,360 +1563,10 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>estadisticas</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>cantidad de estudiantes inscritos por área geográfica, nivel</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>estudiantes desertores</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Información relativa al sector educativo</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>nivel</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>(compras</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>* Información financiera</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>puestos disponibles</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>tiempo real</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>, de semestre</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>, maestrías</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>tesis</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>, producción</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>beneficiarios</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Cambio climático</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>, resultados</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>, medición</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Estadísticos</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>gobierno</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>nivel académicos</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Ejecución</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>, sobre los servicios</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>, ingresos privativos</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>ingresos</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>manera amigable</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>desentralizacion</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>jornadas</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>los datos relacionados con los recursos naturales no renovables que se manejan en la institución, así como los servicios prestados a los usuarios de laboratorios técnicos y de otras Direcciones Generales que conforma la Institución</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>diferentes renglones</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>contrataciones</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>, informes</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>, capacitaciones</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>redes sociales</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>publicaciones</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>, ranking</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1933,7 +1581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1976,7 +1624,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Compras</t>
+          <t>, correos</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1986,7 +1634,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>poblaciones diversas, programas y resultados</t>
+          <t>, teléfonos</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1996,7 +1644,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tiempo real</t>
+          <t>, atribuciones</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2006,7 +1654,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ejecución presupuestaria</t>
+          <t>, nombres</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2016,7 +1664,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Datos abiertos de distintas instituciones como el INACIF, MP, TSE, Municipalidades</t>
+          <t>cargos</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2026,7 +1674,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>formato digital y editable</t>
+          <t>Bases</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2046,7 +1694,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bases</t>
+          <t>Ejecución presupuestaria</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2056,7 +1704,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Base de datos abiertos nominales sobre seguridad, justicia, trabajo, educación desagregados por beneficiarios por sexo, edad, etnia, departamentos y municipios</t>
+          <t>tiempo real</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2066,7 +1714,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Puntos de Tesis, Bibliográfias, estadísticas.</t>
+          <t>Compras</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2076,80 +1724,10 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hots spots o áreas territorialmente identificadas en las cuales se concentran ciertos delitos de alto impacto para la población.</t>
+          <t>Contratos</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Datos sobre violencia (homicida, asesinatos, extorsiones, etc) desagregados territorialmente y por sexo, etnia, edad, etc de la víctima.</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>cargos</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>, nombres</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>, atribuciones</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>, teléfonos</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>, correos</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Contratos</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2164,7 +1742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2187,7 +1765,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>información</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2197,37 +1775,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>información</t>
+          <t>población</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>población</t>
+          <t>institución</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>institución</t>
+          <t>conocimiento</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Conocimiento</t>
+          <t>Transparencia</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2237,7 +1815,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conocimiento</t>
+          <t>ejecución</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2247,7 +1825,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Transparencia</t>
+          <t>Conocimiento</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2257,17 +1835,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ejecución</t>
+          <t>Información</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trabajo</t>
+          <t>Mejora</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2277,7 +1855,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Información</t>
+          <t>trabajo</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2287,7 +1865,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>datos</t>
+          <t>proyectos</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2297,7 +1875,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>producción</t>
+          <t>datos</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2307,7 +1885,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mejora</t>
+          <t>producción</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2317,7 +1895,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rendición</t>
+          <t>prevención</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2327,7 +1905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>proyectos</t>
+          <t>transparencia</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2337,7 +1915,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>prevención</t>
+          <t>Confianza</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2347,7 +1925,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>transparencia</t>
+          <t>cultura</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2357,7 +1935,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Confianza</t>
+          <t>cuentas</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2367,7 +1945,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cuentas</t>
+          <t>rendición</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2377,7 +1955,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cultura</t>
+          <t>usuarios</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2387,17 +1965,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>usuarios</t>
+          <t>propuestas efectivas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Acceso</t>
+          <t>quehacer Institucional</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2407,7 +1985,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sociedad civil</t>
+          <t>percepción ciudadana</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2417,7 +1995,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>propuestas efectivas</t>
+          <t>Población</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2427,7 +2005,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>verdadero impacto</t>
+          <t>consejo</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2437,7 +2015,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>quehacer Institucional</t>
+          <t>servicios públicos</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2447,7 +2025,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>interacción</t>
+          <t>nivel</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2457,7 +2035,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>extorsiones</t>
+          <t>importancia</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2467,7 +2045,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>celulares robados</t>
+          <t>reserva</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2477,7 +2055,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Incidencia Política para la toma de decisiones basadas en evidencia; Gestión de proyectos de apoyo a familias en situacion de desnutrición aguda;   Aumento de auditoría social;</t>
+          <t>reuniones</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2487,7 +2065,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>formatos editables</t>
+          <t>arrendamientos</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2497,7 +2075,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>niveles</t>
+          <t>cantidad</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2507,7 +2085,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cobertura</t>
+          <t>vacunacion</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2517,7 +2095,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vacunacion</t>
+          <t>datos digites</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2527,7 +2105,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>comercialización</t>
+          <t>cobertura</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2537,7 +2115,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>cantidad</t>
+          <t>niveles</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2547,7 +2125,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>reuniones</t>
+          <t>formatos editables</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2557,7 +2135,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>procesamiento</t>
+          <t>sociedad civil</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2567,7 +2145,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>secuestros</t>
+          <t>procesamiento</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2577,7 +2155,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>le</t>
+          <t>interacción</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2587,7 +2165,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>datos digites</t>
+          <t xml:space="preserve"> grupos</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2597,7 +2175,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sociedad interesada</t>
+          <t>adolescencia</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2607,7 +2185,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mano</t>
+          <t>actividades económicas</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2617,7 +2195,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>de los logros</t>
+          <t>empleo digno</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2627,7 +2205,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>tiempo</t>
+          <t>sociedad interesada</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2637,7 +2215,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>obligaciones</t>
+          <t>secuestros</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2647,7 +2225,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>qué</t>
+          <t>extorsiones</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2657,7 +2235,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Generaria beneficio al sector público, ya que daría conocimiento a las instituciones  </t>
+          <t>celulares robados</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2667,7 +2245,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mayor transparencia</t>
+          <t>comercialización</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2677,7 +2255,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Población</t>
+          <t>delincuencia</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2687,7 +2265,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>servicios públicos</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2697,7 +2275,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>relación a zonas</t>
+          <t>tarjetas</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2707,7 +2285,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>reserva</t>
+          <t>celulares</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2717,7 +2295,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Estado</t>
+          <t>comercializadores</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2727,7 +2305,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>arrendamientos</t>
+          <t>caso</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2737,7 +2315,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Conocimiento de la administración pública a traves de graficas</t>
+          <t>ejemplo</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2747,7 +2325,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>importancia</t>
+          <t>Acceso</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2757,7 +2335,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>delincuencia</t>
+          <t>apoyo</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2767,7 +2345,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>empleo digno</t>
+          <t>país</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2777,7 +2355,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>nivel</t>
+          <t>política</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2787,7 +2365,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>relación a la igualdad</t>
+          <t>diseño</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2797,7 +2375,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>equidad</t>
+          <t>, análisis</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2807,7 +2385,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>género</t>
+          <t>, credibilidad</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2817,7 +2395,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>caso</t>
+          <t>gasto</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2827,7 +2405,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ámbito</t>
+          <t>inversión</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2847,7 +2425,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ejemplo</t>
+          <t>ámbito</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2857,7 +2435,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>inversión</t>
+          <t>género</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2867,7 +2445,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>gasto</t>
+          <t>equidad</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2877,7 +2455,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>, credibilidad</t>
+          <t>tiempo</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2887,7 +2465,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>, análisis</t>
+          <t>niñez</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2897,7 +2475,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>caso de emergencias</t>
+          <t xml:space="preserve">datos excatos  </t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2907,7 +2485,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>diseño</t>
+          <t>obligaciones</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2917,7 +2495,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>política</t>
+          <t>decrementos</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2927,7 +2505,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>apoyo</t>
+          <t>mano</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2937,7 +2515,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ninguno, derivado que es información que traslada otras instituciones que conforman CONABED</t>
+          <t>Inversión</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2947,7 +2525,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>adolescencia</t>
+          <t>servidor público</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2957,7 +2535,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>niñez</t>
+          <t>desarrollo</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2967,7 +2545,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>respecto al trabajo policial</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2977,7 +2555,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>consejo</t>
+          <t>sector educativo</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2987,7 +2565,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>seguridad interior y exterior</t>
+          <t>acceso</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2997,7 +2575,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>Programas</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3007,7 +2585,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>tarjetas</t>
+          <t>recursos públicos</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3017,7 +2595,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Análisis de Información para la efectiva toma de decisiones en materia de seguridad.</t>
+          <t>analistas</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3027,7 +2605,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>percepción ciudadana</t>
+          <t>interés</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3037,7 +2615,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>celulares</t>
+          <t>trámites</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3047,7 +2625,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cuanto a la cantidad</t>
+          <t>sociedad</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3057,7 +2635,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>comercializadores</t>
+          <t>causas</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3067,7 +2645,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> grupos</t>
+          <t>información clasificada</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3077,7 +2655,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>comunidades</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3087,7 +2665,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>actividades económicas</t>
+          <t>salud</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3097,7 +2675,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>país</t>
+          <t>comportamiento</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3107,7 +2685,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">datos excatos  </t>
+          <t>solicitudes</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3117,7 +2695,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sería de gran interés</t>
+          <t>Credibilidad</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3127,7 +2705,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>alimentos</t>
+          <t>plazas</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3137,7 +2715,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>de una manera</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3147,7 +2725,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sector educativo</t>
+          <t>inversionistas extranjeros</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3157,7 +2735,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>trámites</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3167,7 +2745,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>interés</t>
+          <t>sectores extractivos</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3177,7 +2755,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>analistas</t>
+          <t>problematica</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3187,7 +2765,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>recursos públicos</t>
+          <t>, tiempo</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3197,7 +2775,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Programas</t>
+          <t>proveedores</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3207,7 +2785,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>cuanta</t>
+          <t>ranking</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3217,7 +2795,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>acceso</t>
+          <t>tipos</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3227,7 +2805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>plataforma</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3237,7 +2815,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>información clasificada</t>
+          <t>, expertaciones</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3247,7 +2825,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>desarrollo</t>
+          <t>alimentos</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3257,7 +2835,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Mayor apertura</t>
+          <t>denuncia</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3267,7 +2845,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>servidor público</t>
+          <t>incrementos</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3277,7 +2855,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>mejor acercamiento</t>
+          <t>estadísticas</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3287,7 +2865,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ellos</t>
+          <t>personas interesadas</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3297,7 +2875,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Así como una transferencia</t>
+          <t>Pro</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3307,7 +2885,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>quien</t>
+          <t>logros</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3317,7 +2895,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>sociedad</t>
+          <t>gobierno</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3327,7 +2905,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Inversión</t>
+          <t>Alto nivel</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3337,7 +2915,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>causas</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3347,7 +2925,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>comunidades</t>
+          <t>políticas públicas</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3357,7 +2935,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>de prevencion</t>
+          <t>implementación</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3367,7 +2945,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>problematica</t>
+          <t>información importante</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3377,7 +2955,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sectores extractivos</t>
+          <t>análisis</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3387,7 +2965,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>tipo</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3397,7 +2975,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>inversionistas extranjeros</t>
+          <t>Institución</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3407,7 +2985,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Información oportuna de los sucesos ocurridos por desastres</t>
+          <t>fuentes</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3417,7 +2995,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>posibles inversionistas</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3427,7 +3005,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Información más certera</t>
+          <t>consulta</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3437,7 +3015,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>plazas</t>
+          <t>servicios</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3447,7 +3025,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Credibilidad</t>
+          <t>contrataciones</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3457,440 +3035,10 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Impacto bajo</t>
+          <t>informes</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>solicitudes</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>información actualizada de los proyectos</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>comportamiento</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>salud</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>que cargos</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>más comunidades</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>, el valor</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>violencia</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Alto nivel</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>gobierno</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>logros</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>, y programas</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Pro</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>personas interesadas</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>estadísticas</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>incrementos</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>decrementos</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>denuncia</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>, expertaciones</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>medio ambiente</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>hecho</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>plataforma</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>donde</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>de seguridad</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>políticas públicas</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>, tiempo</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>implementación</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>proveedores</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>tipos</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>contrataciones</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>servicios</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>sectores minero y energético</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>consulta</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>posibles inversionistas</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>fuentes</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>servicios más efectivos</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Institución</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>tipo</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>mismo</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>análisis</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>información importante</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>informes</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
         <v>1</v>
       </c>
     </row>
